--- a/siv_game/Data/bullets_data.xlsx
+++ b/siv_game/Data/bullets_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="11925"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>bullet_type</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>WORDS_TYPE_BULLET_BOOM</t>
+  </si>
+  <si>
+    <t>BULLET_TYPE_UNLIMITED</t>
+  </si>
+  <si>
+    <t>BULLET_TYPE_FIREWORKS</t>
+  </si>
+  <si>
+    <t>BULLET_TYPE_SHOTGUN</t>
+  </si>
+  <si>
+    <t>BULLET_TYPE_HARD_ATTACK</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -1069,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>0.3</v>
@@ -1086,7 +1098,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1095,18 +1107,96 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/siv_game/Data/bullets_data.xlsx
+++ b/siv_game/Data/bullets_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>bullet_type</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>speed</t>
+  </si>
+  <si>
+    <t>damage</t>
   </si>
   <si>
     <t>color0</t>
@@ -70,8 +73,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -543,16 +546,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,23 +1031,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="4" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,19 +1072,22 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0.8</v>
@@ -1090,24 +1096,27 @@
         <v>0.8</v>
       </c>
       <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
         <v>0.3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1116,88 +1125,100 @@
         <v>0.2</v>
       </c>
       <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
         <v>0.3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0.8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
-      </c>
-      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6">
         <v>60</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.8</v>
       </c>
-      <c r="G6">
-        <v>0.3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
